--- a/SMTO_2015/Location_Choice_Random_Forest/Proposed/Proposed_Results.xlsx
+++ b/SMTO_2015/Location_Choice_Random_Forest/Proposed/Proposed_Results.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ethan\Documents\Ethan\TMG\Research\PORPOS-TMG\SMTO_2015\Location_Choice_Random_Forest\Proposed\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ethan\Documents\Ethan\TMG\Summer 2020\Research\PORPOS-TMG\SMTO_2015\Location_Choice_Random_Forest\Proposed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB3821AE-613C-4ECD-B9B4-DD060FE57F16}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C70792B2-BC21-4DC4-8A75-F2168860D70B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{6A5EB293-A3BF-449F-B625-76C3FD22C47C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{6A5EB293-A3BF-449F-B625-76C3FD22C47C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -114,8 +114,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -160,13 +161,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -482,15 +485,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D1F9E6C-A357-421B-90E7-98E06BED7402}">
-  <dimension ref="A1:M39"/>
+  <dimension ref="A1:N39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>15</v>
       </c>
@@ -498,7 +501,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -509,7 +512,7 @@
         <v>5.8539999999999998E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -541,7 +544,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -575,8 +578,16 @@
       <c r="L4" s="3">
         <v>50.156827999999997</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M4" s="6">
+        <f>SUM(F4:L4)</f>
+        <v>249.99999899999997</v>
+      </c>
+      <c r="N4" s="7">
+        <f>F4/M4</f>
+        <v>0.31998758127995036</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -610,8 +621,16 @@
       <c r="L5" s="3">
         <v>18.717345000000002</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M5" s="6">
+        <f t="shared" ref="M5:M11" si="0">SUM(F5:L5)</f>
+        <v>115</v>
+      </c>
+      <c r="N5" s="7">
+        <f>G5/M5</f>
+        <v>4.3444347826086957E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -645,8 +664,16 @@
       <c r="L6" s="3">
         <v>121.918865</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M6" s="6">
+        <f t="shared" si="0"/>
+        <v>636.99999999999989</v>
+      </c>
+      <c r="N6" s="7">
+        <f>H6/M6</f>
+        <v>0.25710431083202512</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -680,8 +707,16 @@
       <c r="L7" s="3">
         <v>54.210230000000003</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M7" s="6">
+        <f t="shared" si="0"/>
+        <v>275.999999</v>
+      </c>
+      <c r="N7" s="7">
+        <f>I7/M7</f>
+        <v>0.30111621485911672</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -715,8 +750,16 @@
       <c r="L8" s="3">
         <v>240.64415600000001</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M8" s="6">
+        <f t="shared" si="0"/>
+        <v>1500.9999990000001</v>
+      </c>
+      <c r="N8" s="7">
+        <f>J8/M8</f>
+        <v>0.55063672388450147</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -750,8 +793,16 @@
       <c r="L9" s="3">
         <v>17.21583</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M9" s="6">
+        <f t="shared" si="0"/>
+        <v>70.000000999999997</v>
+      </c>
+      <c r="N9" s="7">
+        <f>K9/M9</f>
+        <v>8.5941755915117768E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -785,8 +836,16 @@
       <c r="L10" s="4">
         <v>268.28278</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M10" s="6">
+        <f t="shared" si="0"/>
+        <v>771</v>
+      </c>
+      <c r="N10" s="7">
+        <f>L10/M10</f>
+        <v>0.34796728923476006</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -796,8 +855,44 @@
       <c r="C11" s="2">
         <v>1.8910000000000001E-3</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="F11" s="3">
+        <f>SUM(F4:F10)</f>
+        <v>235.55329500000002</v>
+      </c>
+      <c r="G11" s="3">
+        <f t="shared" ref="G11:K11" si="1">SUM(G4:G10)</f>
+        <v>109.80949800000002</v>
+      </c>
+      <c r="H11" s="3">
+        <f t="shared" si="1"/>
+        <v>690.61144899999988</v>
+      </c>
+      <c r="I11" s="3">
+        <f t="shared" si="1"/>
+        <v>266.20622599999996</v>
+      </c>
+      <c r="J11" s="3">
+        <f t="shared" si="1"/>
+        <v>1459.8068890000002</v>
+      </c>
+      <c r="K11" s="3">
+        <f t="shared" si="1"/>
+        <v>86.866606999999988</v>
+      </c>
+      <c r="L11" s="3">
+        <f>SUM(L4:L10)</f>
+        <v>771.14603399999999</v>
+      </c>
+      <c r="M11" s="6">
+        <f t="shared" si="0"/>
+        <v>3619.9999979999998</v>
+      </c>
+      <c r="N11" s="7">
+        <f>SUM(F4,G5,H6,I7,J8,K9,L10)/M11</f>
+        <v>0.39576821596451278</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -807,29 +902,8 @@
       <c r="C12" s="2">
         <v>1.2719999999999999E-3</v>
       </c>
-      <c r="F12" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" t="s">
-        <v>20</v>
-      </c>
-      <c r="I12" t="s">
-        <v>21</v>
-      </c>
-      <c r="J12" t="s">
-        <v>22</v>
-      </c>
-      <c r="K12" t="s">
-        <v>23</v>
-      </c>
-      <c r="L12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -839,32 +913,29 @@
       <c r="C13" s="2">
         <v>1.114E-3</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>18</v>
       </c>
-      <c r="F13" s="5">
-        <v>133</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>30</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>42</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="G13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H13" t="s">
+        <v>20</v>
+      </c>
+      <c r="I13" t="s">
+        <v>21</v>
+      </c>
+      <c r="J13" t="s">
+        <v>22</v>
+      </c>
+      <c r="K13" t="s">
+        <v>23</v>
+      </c>
+      <c r="L13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -872,31 +943,39 @@
         <v>12</v>
       </c>
       <c r="E14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F14">
-        <v>14</v>
-      </c>
-      <c r="G14" s="5">
+        <v>18</v>
+      </c>
+      <c r="F14" s="5">
+        <v>133</v>
+      </c>
+      <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I14">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="K14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+        <v>45</v>
+      </c>
+      <c r="M14" s="6">
+        <f>SUM(F14:L14)</f>
+        <v>250</v>
+      </c>
+      <c r="N14" s="7">
+        <f>F14/M14</f>
+        <v>0.53200000000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -904,31 +983,39 @@
         <v>0.4849</v>
       </c>
       <c r="E15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F15">
-        <v>58</v>
-      </c>
-      <c r="G15">
+        <v>14</v>
+      </c>
+      <c r="G15" s="5">
         <v>0</v>
       </c>
-      <c r="H15" s="5">
-        <v>164</v>
+      <c r="H15">
+        <v>27</v>
       </c>
       <c r="I15">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="J15">
-        <v>237</v>
+        <v>54</v>
       </c>
       <c r="K15">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L15">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+      <c r="M15" s="6">
+        <f t="shared" ref="M15:M21" si="2">SUM(F15:L15)</f>
+        <v>115</v>
+      </c>
+      <c r="N15" s="7">
+        <f>G15/M15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -936,155 +1023,259 @@
         <v>0.38890000000000002</v>
       </c>
       <c r="E16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16">
+        <v>58</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16" s="5">
+        <v>164</v>
+      </c>
+      <c r="I16">
+        <v>50</v>
+      </c>
+      <c r="J16">
+        <v>237</v>
+      </c>
+      <c r="K16">
+        <v>6</v>
+      </c>
+      <c r="L16">
+        <v>122</v>
+      </c>
+      <c r="M16" s="6">
+        <f t="shared" si="2"/>
+        <v>637</v>
+      </c>
+      <c r="N16" s="7">
+        <f>H16/M16</f>
+        <v>0.25745682888540034</v>
+      </c>
+    </row>
+    <row r="17" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
         <v>21</v>
       </c>
-      <c r="F16">
+      <c r="F17">
         <v>4</v>
-      </c>
-      <c r="G16">
-        <v>1</v>
-      </c>
-      <c r="H16">
-        <v>63</v>
-      </c>
-      <c r="I16" s="5">
-        <v>111</v>
-      </c>
-      <c r="J16">
-        <v>49</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="5:13" x14ac:dyDescent="0.35">
-      <c r="E17" t="s">
-        <v>22</v>
-      </c>
-      <c r="F17">
-        <v>61</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="H17">
+        <v>63</v>
+      </c>
+      <c r="I17" s="5">
+        <v>111</v>
+      </c>
+      <c r="J17">
+        <v>49</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>48</v>
+      </c>
+      <c r="M17" s="6">
+        <f t="shared" si="2"/>
+        <v>276</v>
+      </c>
+      <c r="N17" s="7">
+        <f>I17/M17</f>
+        <v>0.40217391304347827</v>
+      </c>
+    </row>
+    <row r="18" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18">
+        <v>61</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
         <v>167</v>
       </c>
-      <c r="I17">
+      <c r="I18">
         <v>45</v>
       </c>
-      <c r="J17" s="5">
+      <c r="J18" s="5">
         <v>1056</v>
       </c>
-      <c r="K17">
+      <c r="K18">
         <v>13</v>
       </c>
-      <c r="L17">
+      <c r="L18">
         <v>158</v>
       </c>
-    </row>
-    <row r="18" spans="5:13" x14ac:dyDescent="0.35">
-      <c r="E18" t="s">
+      <c r="M18" s="6">
+        <f t="shared" si="2"/>
+        <v>1501</v>
+      </c>
+      <c r="N18" s="7">
+        <f>J18/M18</f>
+        <v>0.70353097934710196</v>
+      </c>
+    </row>
+    <row r="19" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
         <v>23</v>
       </c>
-      <c r="F18">
+      <c r="F19">
         <v>2</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>16</v>
-      </c>
-      <c r="I18">
-        <v>8</v>
-      </c>
-      <c r="J18">
-        <v>25</v>
-      </c>
-      <c r="K18" s="5">
-        <v>5</v>
-      </c>
-      <c r="L18">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="5:13" x14ac:dyDescent="0.35">
-      <c r="E19" t="s">
-        <v>24</v>
-      </c>
-      <c r="F19">
-        <v>50</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
+        <v>16</v>
+      </c>
+      <c r="I19">
+        <v>8</v>
+      </c>
+      <c r="J19">
+        <v>25</v>
+      </c>
+      <c r="K19" s="5">
+        <v>5</v>
+      </c>
+      <c r="L19">
+        <v>14</v>
+      </c>
+      <c r="M19" s="6">
+        <f t="shared" si="2"/>
+        <v>70</v>
+      </c>
+      <c r="N19" s="7">
+        <f>K19/M19</f>
+        <v>7.1428571428571425E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
+        <v>24</v>
+      </c>
+      <c r="F20">
+        <v>50</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
         <v>105</v>
       </c>
-      <c r="I19">
+      <c r="I20">
         <v>41</v>
       </c>
-      <c r="J19">
+      <c r="J20">
         <v>249</v>
       </c>
-      <c r="K19">
+      <c r="K20">
         <v>0</v>
       </c>
-      <c r="L19" s="5">
+      <c r="L20" s="5">
         <v>326</v>
       </c>
-    </row>
-    <row r="23" spans="5:13" x14ac:dyDescent="0.35">
+      <c r="M20" s="6">
+        <f t="shared" si="2"/>
+        <v>771</v>
+      </c>
+      <c r="N20" s="7">
+        <f>L20/M20</f>
+        <v>0.42282749675745784</v>
+      </c>
+    </row>
+    <row r="21" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="F21" s="3">
+        <f>SUM(F14:F20)</f>
+        <v>322</v>
+      </c>
+      <c r="G21" s="3">
+        <f t="shared" ref="G21" si="3">SUM(G14:G20)</f>
+        <v>2</v>
+      </c>
+      <c r="H21" s="3">
+        <f t="shared" ref="H21" si="4">SUM(H14:H20)</f>
+        <v>572</v>
+      </c>
+      <c r="I21" s="3">
+        <f t="shared" ref="I21" si="5">SUM(I14:I20)</f>
+        <v>261</v>
+      </c>
+      <c r="J21" s="3">
+        <f t="shared" ref="J21" si="6">SUM(J14:J20)</f>
+        <v>1712</v>
+      </c>
+      <c r="K21" s="3">
+        <f t="shared" ref="K21" si="7">SUM(K14:K20)</f>
+        <v>27</v>
+      </c>
+      <c r="L21" s="3">
+        <f>SUM(L14:L20)</f>
+        <v>724</v>
+      </c>
+      <c r="M21" s="6">
+        <f t="shared" si="2"/>
+        <v>3620</v>
+      </c>
+      <c r="N21" s="7">
+        <f>SUM(F14,G15,H16,I17,J18,K19,L20)/M21</f>
+        <v>0.4958563535911602</v>
+      </c>
+    </row>
+    <row r="23" spans="5:14" x14ac:dyDescent="0.25">
       <c r="H23" s="1"/>
     </row>
-    <row r="24" spans="5:13" x14ac:dyDescent="0.35">
+    <row r="24" spans="5:14" x14ac:dyDescent="0.25">
       <c r="H24" s="1"/>
     </row>
-    <row r="29" spans="5:13" x14ac:dyDescent="0.35">
+    <row r="29" spans="5:14" x14ac:dyDescent="0.25">
       <c r="K29" s="2"/>
       <c r="M29" s="2"/>
     </row>
-    <row r="30" spans="5:13" x14ac:dyDescent="0.35">
+    <row r="30" spans="5:14" x14ac:dyDescent="0.25">
       <c r="K30" s="2"/>
       <c r="M30" s="2"/>
     </row>
-    <row r="31" spans="5:13" x14ac:dyDescent="0.35">
+    <row r="31" spans="5:14" x14ac:dyDescent="0.25">
       <c r="K31" s="2"/>
       <c r="M31" s="2"/>
     </row>
-    <row r="32" spans="5:13" x14ac:dyDescent="0.35">
+    <row r="32" spans="5:14" x14ac:dyDescent="0.25">
       <c r="K32" s="2"/>
       <c r="M32" s="2"/>
     </row>
-    <row r="33" spans="11:13" x14ac:dyDescent="0.35">
+    <row r="33" spans="11:13" x14ac:dyDescent="0.25">
       <c r="K33" s="2"/>
       <c r="M33" s="2"/>
     </row>
-    <row r="34" spans="11:13" x14ac:dyDescent="0.35">
+    <row r="34" spans="11:13" x14ac:dyDescent="0.25">
       <c r="K34" s="2"/>
       <c r="M34" s="2"/>
     </row>
-    <row r="35" spans="11:13" x14ac:dyDescent="0.35">
+    <row r="35" spans="11:13" x14ac:dyDescent="0.25">
       <c r="K35" s="2"/>
       <c r="M35" s="2"/>
     </row>
-    <row r="36" spans="11:13" x14ac:dyDescent="0.35">
+    <row r="36" spans="11:13" x14ac:dyDescent="0.25">
       <c r="K36" s="2"/>
       <c r="M36" s="2"/>
     </row>
-    <row r="37" spans="11:13" x14ac:dyDescent="0.35">
+    <row r="37" spans="11:13" x14ac:dyDescent="0.25">
       <c r="K37" s="2"/>
       <c r="M37" s="2"/>
     </row>
-    <row r="38" spans="11:13" x14ac:dyDescent="0.35">
+    <row r="38" spans="11:13" x14ac:dyDescent="0.25">
       <c r="K38" s="2"/>
       <c r="M38" s="2"/>
     </row>
-    <row r="39" spans="11:13" x14ac:dyDescent="0.35">
+    <row r="39" spans="11:13" x14ac:dyDescent="0.25">
       <c r="K39" s="2"/>
       <c r="M39" s="2"/>
     </row>
